--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -221,15 +221,15 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.7840909090909"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.1761363636364"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.7840909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.2897727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.8409090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="17.2897727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,7 +343,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -370,7 +370,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.7840909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="17.2897727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -14,34 +14,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TableIds</t>
+  </si>
+  <si>
+    <t>MinAtkOp</t>
+  </si>
+  <si>
+    <t>MaxAtkOp</t>
+  </si>
+  <si>
+    <t>MinDefOp</t>
+  </si>
+  <si>
+    <t>MaxDefOp</t>
+  </si>
+  <si>
+    <t>MinCtOp</t>
+  </si>
+  <si>
+    <t>MaxCtOp</t>
+  </si>
+  <si>
     <t>MusicId</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TableIds</t>
-  </si>
-  <si>
-    <t>MinAtkOp</t>
-  </si>
-  <si>
-    <t>MaxAtkOp</t>
-  </si>
-  <si>
-    <t>MinDefOp</t>
-  </si>
-  <si>
-    <t>MaxDefOp</t>
-  </si>
-  <si>
-    <t>MinCtOp</t>
-  </si>
-  <si>
-    <t>MaxCtOp</t>
   </si>
   <si>
     <t>MinDura</t>
@@ -129,31 +129,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -162,7 +162,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -334,7 +334,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -14,6 +14,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
+    <t>MusicId</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
     <t>MaxCtOp</t>
   </si>
   <si>
-    <t>MusicId</t>
-  </si>
-  <si>
     <t>MinDura</t>
   </si>
   <si>
@@ -56,7 +56,7 @@
     <t>0,0,0,0,0,0,0,0,0,1</t>
   </si>
   <si>
-    <t>2,2,2,2,2,2,2,2,22,3,3,3,3,3,3,3,4,4,4,5</t>
+    <t>2,2,3,2,4,2,4,2,22,3,3,5,5,6,6,7,7,8,8,9</t>
   </si>
   <si>
     <t>6,6,6,6,6,6,6,6,28,7,7,7,7,7,7,7,7,34,8,8,8,8,8,8,9</t>
@@ -129,31 +129,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -162,7 +162,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -179,25 +179,25 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" s="1">
         <v>0.0</v>
       </c>
       <c r="G2" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="H2" s="1">
         <v>1.0</v>
       </c>
       <c r="I2" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="J2" s="1">
         <v>0.0</v>
       </c>
       <c r="K2" s="1">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="L2" s="1">
         <v>0.0</v>
@@ -334,7 +334,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -14,34 +14,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TableIds</t>
+  </si>
+  <si>
+    <t>MinAtkOp</t>
+  </si>
+  <si>
+    <t>MaxAtkOp</t>
+  </si>
+  <si>
+    <t>MinDefOp</t>
+  </si>
+  <si>
+    <t>MaxDefOp</t>
+  </si>
+  <si>
+    <t>MinCtOp</t>
+  </si>
+  <si>
+    <t>MaxCtOp</t>
+  </si>
+  <si>
     <t>MusicId</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TableIds</t>
-  </si>
-  <si>
-    <t>MinAtkOp</t>
-  </si>
-  <si>
-    <t>MaxAtkOp</t>
-  </si>
-  <si>
-    <t>MinDefOp</t>
-  </si>
-  <si>
-    <t>MaxDefOp</t>
-  </si>
-  <si>
-    <t>MinCtOp</t>
-  </si>
-  <si>
-    <t>MaxCtOp</t>
   </si>
   <si>
     <t>MinDura</t>
@@ -129,31 +129,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -162,7 +162,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -217,7 +217,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="1">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -235,7 +235,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="1">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="L3" s="1">
         <v>1.0</v>
@@ -334,7 +334,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>MusicId</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -41,28 +44,34 @@
     <t>MaxCtOp</t>
   </si>
   <si>
-    <t>MusicId</t>
-  </si>
-  <si>
     <t>MinDura</t>
   </si>
   <si>
     <t>MaxDura</t>
   </si>
   <si>
-    <t>ダンジョン１</t>
+    <t>はじまりのもり</t>
   </si>
   <si>
     <t>0,0,0,0,0,0,0,0,0,1</t>
   </si>
   <si>
+    <t>なげきのさばく</t>
+  </si>
+  <si>
     <t>2,2,3,2,4,2,4,2,22,3,3,5,5,6,6,7,7,8,8,9</t>
   </si>
   <si>
-    <t>6,6,6,6,6,6,6,6,28,7,7,7,7,7,7,7,7,34,8,8,8,8,8,8,9</t>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,35,11,11,11,11,11,12,12,12,12,13,13,13,13,13,38,14,14,14,14,15</t>
+    <t>かえらずのうみ</t>
+  </si>
+  <si>
+    <t>10,10,10,10,11,11,11,12,43,13,13,13,13,14,14,14,14,34,15,15,15,15,15,49,16</t>
+  </si>
+  <si>
+    <t>かなしきそら</t>
+  </si>
+  <si>
+    <t>17,17,18,18,19,19,20,20,21,53,21,22,22,23,23,24,25,26,27,28,29,30,31,32,33,34,35,35,62,36</t>
   </si>
 </sst>
 </file>
@@ -132,28 +141,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -162,7 +171,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -208,10 +217,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
@@ -246,10 +255,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>-2.0</v>
@@ -284,10 +293,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>-50.0</v>
@@ -334,7 +343,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -59,7 +59,7 @@
     <t>なげきのさばく</t>
   </si>
   <si>
-    <t>2,2,3,2,4,2,4,2,22,3,3,5,5,6,6,7,7,8,8,9</t>
+    <t>2,2,3,2,4,2,4,2,43,3,3,5,5,6,6,7,7,8,8,9</t>
   </si>
   <si>
     <t>かえらずのうみ</t>

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -14,12 +14,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
+    <t>MusicId</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>MusicId</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -65,7 +65,7 @@
     <t>かえらずのうみ</t>
   </si>
   <si>
-    <t>10,10,10,10,11,11,11,12,43,13,13,13,13,14,14,14,14,34,15,15,15,15,15,49,16</t>
+    <t>10,10,10,10,11,11,11,12,43,13,13,13,13,14,14,14,14,49,15,15,15,15,15,49,16</t>
   </si>
   <si>
     <t>かなしきそら</t>
@@ -138,7 +138,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -171,7 +171,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -14,40 +14,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>TableIds</t>
+  </si>
+  <si>
+    <t>MinAtkOp</t>
+  </si>
+  <si>
+    <t>MaxAtkOp</t>
+  </si>
+  <si>
+    <t>MinDefOp</t>
+  </si>
+  <si>
+    <t>MaxDefOp</t>
+  </si>
+  <si>
+    <t>MinCtOp</t>
+  </si>
+  <si>
+    <t>MaxCtOp</t>
+  </si>
+  <si>
+    <t>MinDura</t>
+  </si>
+  <si>
+    <t>MaxDura</t>
+  </si>
+  <si>
     <t>MusicId</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>TableIds</t>
-  </si>
-  <si>
-    <t>MinAtkOp</t>
-  </si>
-  <si>
-    <t>MaxAtkOp</t>
-  </si>
-  <si>
-    <t>MinDefOp</t>
-  </si>
-  <si>
-    <t>MaxDefOp</t>
-  </si>
-  <si>
-    <t>MinCtOp</t>
-  </si>
-  <si>
-    <t>MaxCtOp</t>
-  </si>
-  <si>
-    <t>MinDura</t>
-  </si>
-  <si>
-    <t>MaxDura</t>
   </si>
   <si>
     <t>はじまりのもり</t>
@@ -138,40 +138,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -299,16 +299,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>-50.0</v>
+        <v>-15.0</v>
       </c>
       <c r="E5" s="1">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
       <c r="F5" s="1">
         <v>-20.0</v>
       </c>
       <c r="G5" s="1">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="H5" s="1">
         <v>1.0</v>
@@ -343,7 +343,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DungeonData.xlsx
@@ -17,6 +17,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>MusicId</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
     <t>MaxDura</t>
   </si>
   <si>
-    <t>MusicId</t>
-  </si>
-  <si>
     <t>はじまりのもり</t>
   </si>
   <si>
@@ -71,7 +71,7 @@
     <t>かなしきそら</t>
   </si>
   <si>
-    <t>17,17,18,18,19,19,20,20,21,53,21,22,22,23,23,24,25,26,27,28,29,30,31,32,33,34,35,35,62,36</t>
+    <t>17,17,18,18,19,19,20,20,21,53,21,22,22,23,23,24,25,26,27,28,29,30,31,32,33,34,34,35,62,36</t>
   </si>
 </sst>
 </file>
@@ -141,37 +141,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
